--- a/Data/Export/17 RN Conat.xlsx
+++ b/Data/Export/17 RN Conat.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="600" windowWidth="28220" windowHeight="11960"/>
+    <workbookView xWindow="285" yWindow="600" windowWidth="24240" windowHeight="11955"/>
   </bookViews>
   <sheets>
     <sheet name="Placettes" sheetId="1" r:id="rId1"/>
@@ -21,17 +21,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Rege!$A$1:$M$308</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Transect!$A$1:$L$94</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="114210" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5408" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5409" uniqueCount="185">
   <si>
     <t>num</t>
   </si>
@@ -584,28 +579,29 @@
   <si>
     <t>Groupe2</t>
   </si>
+  <si>
+    <t>Habitat</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -617,27 +613,17 @@
       <family val="1"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="11"/>
+      <sz val="12"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="238"/>
     </font>
     <font>
       <sz val="12"/>
@@ -662,13 +648,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC0C0C0"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor indexed="22"/>
+        <bgColor indexed="8"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
+        <fgColor indexed="55"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -682,8 +668,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
       <alignment wrapText="1"/>
     </xf>
@@ -693,78 +688,42 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="6" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="6" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="18"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="18" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="19">
-    <cellStyle name="Lien hypertexte" xfId="8" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="10" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="12" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="14" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="16" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="17" builtinId="9" hidden="1"/>
+  <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="6"/>
-    <cellStyle name="Normal 3" xfId="18"/>
-    <cellStyle name="Pourcentage 2" xfId="7"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 3" xfId="2"/>
+    <cellStyle name="Pourcentage 2" xfId="3"/>
     <cellStyle name="XLConnect.Boolean" xfId="4"/>
     <cellStyle name="XLConnect.DateTime" xfId="5"/>
-    <cellStyle name="XLConnect.Header" xfId="1"/>
-    <cellStyle name="XLConnect.Numeric" xfId="3"/>
-    <cellStyle name="XLConnect.String" xfId="2"/>
+    <cellStyle name="XLConnect.Header" xfId="6"/>
+    <cellStyle name="XLConnect.Numeric" xfId="7"/>
+    <cellStyle name="XLConnect.String" xfId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1054,18 +1013,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3060" topLeftCell="A26"/>
-      <selection activeCell="R1" sqref="R1:S1"/>
+      <selection activeCell="T2" sqref="T2"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:20">
       <c r="A1" s="4" t="s">
         <v>175</v>
       </c>
@@ -1123,8 +1082,11 @@
       <c r="S1" s="9" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="T1" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="3">
         <v>17</v>
       </c>
@@ -1153,7 +1115,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:20">
       <c r="A3" s="3">
         <v>17</v>
       </c>
@@ -1182,7 +1144,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:20">
       <c r="A4" s="3">
         <v>17</v>
       </c>
@@ -1211,7 +1173,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:20">
       <c r="A5" s="3">
         <v>17</v>
       </c>
@@ -1240,7 +1202,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:20">
       <c r="A6" s="3">
         <v>17</v>
       </c>
@@ -1269,7 +1231,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:20">
       <c r="A7" s="3">
         <v>17</v>
       </c>
@@ -1298,7 +1260,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:20">
       <c r="A8" s="3">
         <v>17</v>
       </c>
@@ -1327,7 +1289,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:20">
       <c r="A9" s="3">
         <v>17</v>
       </c>
@@ -1356,7 +1318,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:20">
       <c r="A10" s="3">
         <v>17</v>
       </c>
@@ -1385,7 +1347,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:20">
       <c r="A11" s="3">
         <v>17</v>
       </c>
@@ -1414,7 +1376,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:20">
       <c r="A12" s="3">
         <v>17</v>
       </c>
@@ -1443,7 +1405,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:20">
       <c r="A13" s="3">
         <v>17</v>
       </c>
@@ -1472,7 +1434,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:20">
       <c r="A14" s="3">
         <v>17</v>
       </c>
@@ -1501,7 +1463,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:20">
       <c r="A15" s="3">
         <v>17</v>
       </c>
@@ -1530,7 +1492,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:20">
       <c r="A16" s="3">
         <v>17</v>
       </c>
@@ -1996,28 +1958,21 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:Q31"/>
-  <sortState ref="A2:V31">
-    <sortCondition ref="B2:B31"/>
-  </sortState>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q968"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E749" sqref="E749:E889"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="4" t="s">
@@ -40899,30 +40854,21 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:R968">
-    <sortCondition ref="A2:A968"/>
-    <sortCondition ref="B2:B968"/>
-    <sortCondition ref="F2:F968"/>
-  </sortState>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M308"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F314" sqref="F314"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="4" t="s">
@@ -51668,24 +51614,20 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E68" sqref="E68:E69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="9" t="s">
@@ -55071,27 +55013,23 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="J2:K94" numberStoredAsText="1"/>
   </ignoredErrors>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection sqref="A1:A65536"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="9" t="s">
@@ -55984,27 +55922,23 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="K2:L25" numberStoredAsText="1"/>
   </ignoredErrors>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="10" t="s">
@@ -56030,558 +55964,550 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="15">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:5" ht="15.75">
+      <c r="A1" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15">
-      <c r="A2" s="13">
-        <v>17</v>
-      </c>
-      <c r="B2" s="13">
+    <row r="2" spans="1:5" ht="15.75">
+      <c r="A2" s="3">
+        <v>17</v>
+      </c>
+      <c r="B2" s="3">
         <v>554</v>
       </c>
       <c r="C2" s="12">
         <v>1</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="3">
         <v>3</v>
       </c>
-      <c r="E2" s="17">
+      <c r="E2" s="15">
         <v>40016</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15">
-      <c r="A3" s="13">
-        <v>17</v>
-      </c>
-      <c r="B3" s="13">
+    <row r="3" spans="1:5" ht="15.75">
+      <c r="A3" s="3">
+        <v>17</v>
+      </c>
+      <c r="B3" s="3">
         <v>603</v>
       </c>
       <c r="C3" s="12">
         <v>1</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="3">
         <v>3</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="15">
         <v>40375</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15">
-      <c r="A4" s="13">
-        <v>17</v>
-      </c>
-      <c r="B4" s="13">
+    <row r="4" spans="1:5" ht="15.75">
+      <c r="A4" s="3">
+        <v>17</v>
+      </c>
+      <c r="B4" s="3">
         <v>604</v>
       </c>
       <c r="C4" s="12">
         <v>1</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="3">
         <v>3</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="15">
         <v>40375</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15">
-      <c r="A5" s="13">
-        <v>17</v>
-      </c>
-      <c r="B5" s="13">
+    <row r="5" spans="1:5" ht="15.75">
+      <c r="A5" s="3">
+        <v>17</v>
+      </c>
+      <c r="B5" s="3">
         <v>605</v>
       </c>
       <c r="C5" s="12">
         <v>1</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="3">
         <v>3</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="15">
         <v>40735</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15">
-      <c r="A6" s="13">
-        <v>17</v>
-      </c>
-      <c r="B6" s="13">
+    <row r="6" spans="1:5" ht="15.75">
+      <c r="A6" s="3">
+        <v>17</v>
+      </c>
+      <c r="B6" s="3">
         <v>606</v>
       </c>
       <c r="C6" s="12">
         <v>1</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="3">
         <v>3</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="15">
         <v>40366</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15">
-      <c r="A7" s="13">
-        <v>17</v>
-      </c>
-      <c r="B7" s="13">
+    <row r="7" spans="1:5" ht="15.75">
+      <c r="A7" s="3">
+        <v>17</v>
+      </c>
+      <c r="B7" s="3">
         <v>607</v>
       </c>
       <c r="C7" s="12">
         <v>1</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="3">
         <v>3</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="15">
         <v>40366</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15">
-      <c r="A8" s="13">
-        <v>17</v>
-      </c>
-      <c r="B8" s="13">
+    <row r="8" spans="1:5" ht="15.75">
+      <c r="A8" s="3">
+        <v>17</v>
+      </c>
+      <c r="B8" s="3">
         <v>608</v>
       </c>
       <c r="C8" s="12">
         <v>1</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="3">
         <v>3</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="15">
         <v>40435</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15">
-      <c r="A9" s="13">
-        <v>17</v>
-      </c>
-      <c r="B9" s="13">
+    <row r="9" spans="1:5" ht="15.75">
+      <c r="A9" s="3">
+        <v>17</v>
+      </c>
+      <c r="B9" s="3">
         <v>609</v>
       </c>
       <c r="C9" s="12">
         <v>1</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="3">
         <v>3</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="15">
         <v>40758</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15">
-      <c r="A10" s="13">
-        <v>17</v>
-      </c>
-      <c r="B10" s="13">
+    <row r="10" spans="1:5" ht="15.75">
+      <c r="A10" s="3">
+        <v>17</v>
+      </c>
+      <c r="B10" s="3">
         <v>610</v>
       </c>
       <c r="C10" s="12">
         <v>1</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="3">
         <v>3</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="15">
         <v>40730</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15">
-      <c r="A11" s="13">
-        <v>17</v>
-      </c>
-      <c r="B11" s="13">
+    <row r="11" spans="1:5" ht="15.75">
+      <c r="A11" s="3">
+        <v>17</v>
+      </c>
+      <c r="B11" s="3">
         <v>611</v>
       </c>
       <c r="C11" s="12">
         <v>1</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="3">
         <v>3</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="15">
         <v>40731</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15">
-      <c r="A12" s="13">
-        <v>17</v>
-      </c>
-      <c r="B12" s="13">
+    <row r="12" spans="1:5" ht="15.75">
+      <c r="A12" s="3">
+        <v>17</v>
+      </c>
+      <c r="B12" s="3">
         <v>612</v>
       </c>
       <c r="C12" s="12">
         <v>1</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="3">
         <v>3</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="15">
         <v>40380</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15">
-      <c r="A13" s="13">
-        <v>17</v>
-      </c>
-      <c r="B13" s="13">
+    <row r="13" spans="1:5" ht="15.75">
+      <c r="A13" s="3">
+        <v>17</v>
+      </c>
+      <c r="B13" s="3">
         <v>613</v>
       </c>
       <c r="C13" s="12">
         <v>1</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="3">
         <v>3</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="15">
         <v>40380</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15">
-      <c r="A14" s="13">
-        <v>17</v>
-      </c>
-      <c r="B14" s="13">
+    <row r="14" spans="1:5" ht="15.75">
+      <c r="A14" s="3">
+        <v>17</v>
+      </c>
+      <c r="B14" s="3">
         <v>614</v>
       </c>
       <c r="C14" s="12">
         <v>1</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="3">
         <v>3</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="15">
         <v>40387</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15">
-      <c r="A15" s="13">
-        <v>17</v>
-      </c>
-      <c r="B15" s="13">
+    <row r="15" spans="1:5" ht="15.75">
+      <c r="A15" s="3">
+        <v>17</v>
+      </c>
+      <c r="B15" s="3">
         <v>615</v>
       </c>
       <c r="C15" s="12">
         <v>1</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="3">
         <v>3</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="15">
         <v>40387</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15">
-      <c r="A16" s="13">
-        <v>17</v>
-      </c>
-      <c r="B16" s="13">
+    <row r="16" spans="1:5" ht="15.75">
+      <c r="A16" s="3">
+        <v>17</v>
+      </c>
+      <c r="B16" s="3">
         <v>616</v>
       </c>
       <c r="C16" s="12">
         <v>1</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="3">
         <v>3</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="15">
         <v>40388</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15">
-      <c r="A17" s="13">
-        <v>17</v>
-      </c>
-      <c r="B17" s="13">
+    <row r="17" spans="1:5" ht="15.75">
+      <c r="A17" s="3">
+        <v>17</v>
+      </c>
+      <c r="B17" s="3">
         <v>617</v>
       </c>
       <c r="C17" s="12">
         <v>1</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="3">
         <v>3</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="15">
         <v>40386</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15">
-      <c r="A18" s="13">
-        <v>17</v>
-      </c>
-      <c r="B18" s="13">
+    <row r="18" spans="1:5" ht="15.75">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3">
         <v>618</v>
       </c>
       <c r="C18" s="12">
         <v>1</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="3">
         <v>3</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="15">
         <v>40758</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15">
-      <c r="A19" s="13">
-        <v>17</v>
-      </c>
-      <c r="B19" s="13">
+    <row r="19" spans="1:5" ht="15.75">
+      <c r="A19" s="3">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3">
         <v>619</v>
       </c>
       <c r="C19" s="12">
         <v>1</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="3">
         <v>3</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E19" s="15">
         <v>40730</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15">
-      <c r="A20" s="13">
-        <v>17</v>
-      </c>
-      <c r="B20" s="13">
+    <row r="20" spans="1:5" ht="15.75">
+      <c r="A20" s="3">
+        <v>17</v>
+      </c>
+      <c r="B20" s="3">
         <v>620</v>
       </c>
       <c r="C20" s="12">
         <v>1</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="3">
         <v>3</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E20" s="15">
         <v>40401</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15">
-      <c r="A21" s="13">
-        <v>17</v>
-      </c>
-      <c r="B21" s="13">
+    <row r="21" spans="1:5" ht="15.75">
+      <c r="A21" s="3">
+        <v>17</v>
+      </c>
+      <c r="B21" s="3">
         <v>621</v>
       </c>
       <c r="C21" s="12">
         <v>1</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="3">
         <v>3</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E21" s="15">
         <v>40729</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15">
-      <c r="A22" s="13">
-        <v>17</v>
-      </c>
-      <c r="B22" s="13">
+    <row r="22" spans="1:5" ht="15.75">
+      <c r="A22" s="3">
+        <v>17</v>
+      </c>
+      <c r="B22" s="3">
         <v>622</v>
       </c>
       <c r="C22" s="12">
         <v>1</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="3">
         <v>3</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E22" s="15">
         <v>40729</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15">
-      <c r="A23" s="13">
-        <v>17</v>
-      </c>
-      <c r="B23" s="13">
+    <row r="23" spans="1:5" ht="15.75">
+      <c r="A23" s="3">
+        <v>17</v>
+      </c>
+      <c r="B23" s="3">
         <v>623</v>
       </c>
       <c r="C23" s="12">
         <v>1</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D23" s="3">
         <v>3</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E23" s="15">
         <v>40386</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15">
-      <c r="A24" s="13">
-        <v>17</v>
-      </c>
-      <c r="B24" s="13">
+    <row r="24" spans="1:5" ht="15.75">
+      <c r="A24" s="3">
+        <v>17</v>
+      </c>
+      <c r="B24" s="3">
         <v>624</v>
       </c>
       <c r="C24" s="12">
         <v>1</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D24" s="3">
         <v>3</v>
       </c>
-      <c r="E24" s="17">
+      <c r="E24" s="15">
         <v>40386</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15">
-      <c r="A25" s="13">
-        <v>17</v>
-      </c>
-      <c r="B25" s="13">
+    <row r="25" spans="1:5" ht="15.75">
+      <c r="A25" s="3">
+        <v>17</v>
+      </c>
+      <c r="B25" s="3">
         <v>625</v>
       </c>
       <c r="C25" s="12">
         <v>1</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D25" s="3">
         <v>3</v>
       </c>
-      <c r="E25" s="17">
+      <c r="E25" s="15">
         <v>40714</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15">
-      <c r="A26" s="13">
-        <v>17</v>
-      </c>
-      <c r="B26" s="13">
+    <row r="26" spans="1:5" ht="15.75">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3">
         <v>626</v>
       </c>
       <c r="C26" s="12">
         <v>1</v>
       </c>
-      <c r="D26" s="13">
+      <c r="D26" s="3">
         <v>3</v>
       </c>
-      <c r="E26" s="17">
+      <c r="E26" s="15">
         <v>40731</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15">
-      <c r="A27" s="13">
-        <v>17</v>
-      </c>
-      <c r="B27" s="13">
+    <row r="27" spans="1:5" ht="15.75">
+      <c r="A27" s="3">
+        <v>17</v>
+      </c>
+      <c r="B27" s="3">
         <v>627</v>
       </c>
       <c r="C27" s="12">
         <v>1</v>
       </c>
-      <c r="D27" s="13">
+      <c r="D27" s="3">
         <v>3</v>
       </c>
-      <c r="E27" s="17">
+      <c r="E27" s="15">
         <v>40715</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15">
-      <c r="A28" s="13">
-        <v>17</v>
-      </c>
-      <c r="B28" s="13">
+    <row r="28" spans="1:5" ht="15.75">
+      <c r="A28" s="3">
+        <v>17</v>
+      </c>
+      <c r="B28" s="3">
         <v>628</v>
       </c>
       <c r="C28" s="12">
         <v>1</v>
       </c>
-      <c r="D28" s="13">
+      <c r="D28" s="3">
         <v>3</v>
       </c>
-      <c r="E28" s="17">
+      <c r="E28" s="15">
         <v>40735</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15">
-      <c r="A29" s="13">
-        <v>17</v>
-      </c>
-      <c r="B29" s="13">
+    <row r="29" spans="1:5" ht="15.75">
+      <c r="A29" s="3">
+        <v>17</v>
+      </c>
+      <c r="B29" s="3">
         <v>629</v>
       </c>
       <c r="C29" s="12">
         <v>1</v>
       </c>
-      <c r="D29" s="13">
+      <c r="D29" s="3">
         <v>3</v>
       </c>
-      <c r="E29" s="17">
+      <c r="E29" s="15">
         <v>40387</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15">
-      <c r="A30" s="13">
-        <v>17</v>
-      </c>
-      <c r="B30" s="13">
+    <row r="30" spans="1:5" ht="15.75">
+      <c r="A30" s="3">
+        <v>17</v>
+      </c>
+      <c r="B30" s="3">
         <v>630</v>
       </c>
       <c r="C30" s="12">
         <v>1</v>
       </c>
-      <c r="D30" s="13">
+      <c r="D30" s="3">
         <v>3</v>
       </c>
-      <c r="E30" s="17">
+      <c r="E30" s="15">
         <v>40388</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15">
-      <c r="A31" s="13">
-        <v>17</v>
-      </c>
-      <c r="B31" s="13">
+    <row r="31" spans="1:5" ht="15.75">
+      <c r="A31" s="3">
+        <v>17</v>
+      </c>
+      <c r="B31" s="3">
         <v>631</v>
       </c>
       <c r="C31" s="12">
         <v>1</v>
       </c>
-      <c r="D31" s="13">
+      <c r="D31" s="3">
         <v>3</v>
       </c>
-      <c r="E31" s="17">
+      <c r="E31" s="15">
         <v>40388</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>